--- a/data/trans_orig/P21D_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Estudios-trans_orig.xlsx
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009589736036090877</v>
+        <v>0.009590321395584547</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3455</v>
+        <v>4230</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001136367233611201</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005590995848320519</v>
+        <v>0.006844272183458702</v>
       </c>
     </row>
     <row r="5">
@@ -823,10 +823,10 @@
         <v>364366</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.998072545868116</v>
+        <v>0.9980725458681159</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9904102639639091</v>
+        <v>0.9904096786044155</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -838,16 +838,16 @@
         <v>617319</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>614566</v>
+        <v>613791</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>618021</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9988636327663887</v>
+        <v>0.9988636327663889</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9944090041516794</v>
+        <v>0.9931557278165409</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4824</v>
+        <v>3783</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0007595984052831607</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.004895195423405954</v>
+        <v>0.003838393017337824</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3753</v>
+        <v>3783</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0003848777736995159</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.001929509348129677</v>
+        <v>0.001944983564921629</v>
       </c>
     </row>
     <row r="8">
@@ -1018,16 +1018,16 @@
         <v>984770</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>980695</v>
+        <v>981736</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>985519</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9992404015947169</v>
+        <v>0.9992404015947168</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9951048045765947</v>
+        <v>0.9961616069826622</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>1944280</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1941276</v>
+        <v>1941246</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1945029</v>
@@ -1048,7 +1048,7 @@
         <v>0.9996151222263006</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9980704906518703</v>
+        <v>0.998055016435078</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1328,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5134</v>
+        <v>5321</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0008574413903619667</v>
+        <v>0.0008574413903619666</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.003033931687659581</v>
+        <v>0.003144371606203864</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4446</v>
+        <v>5151</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0004460870580446369</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.001366973321901615</v>
+        <v>0.001583822812069331</v>
       </c>
     </row>
     <row r="14">
@@ -1388,16 +1388,16 @@
         <v>1690673</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1686990</v>
+        <v>1686803</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>1692124</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9991425586096381</v>
+        <v>0.999142558609638</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9969660683123405</v>
+        <v>0.9968556283937967</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1409,16 +1409,16 @@
         <v>3251047</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3248052</v>
+        <v>3247347</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>3252498</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9995539129419554</v>
+        <v>0.9995539129419555</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9986330266780979</v>
+        <v>0.9984161771879306</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
